--- a/lab2/lab2-flu.xlsx
+++ b/lab2/lab2-flu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3220458-BDA6-4724-B027-37B1E96FF572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE4B18-DFEF-4543-8FC2-A8B793D9B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C49E63F5-E306-43EF-9E1D-6623F3DA5874}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>a mm</t>
   </si>
@@ -84,16 +84,53 @@
   </si>
   <si>
     <t>Hbar ม</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>X Fexp</t>
+  </si>
+  <si>
+    <t>Y theo</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>ความสัมพัน</t>
+  </si>
+  <si>
+    <t>Xbar</t>
+  </si>
+  <si>
+    <t>Ybar</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ftheo = m(Fexp)+C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="187" formatCode="0.0"/>
     <numFmt numFmtId="188" formatCode="0.000"/>
     <numFmt numFmtId="189" formatCode="0.00000"/>
+    <numFmt numFmtId="192" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -105,7 +142,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +158,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,9 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -169,13 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -191,6 +246,29 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,102 +583,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC5AA8-82F9-402F-A304-5DAF3A28FC3F}">
-  <dimension ref="C2:Q25"/>
+  <dimension ref="C2:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="8.8984375" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" customWidth="1"/>
     <col min="14" max="14" width="9.69921875" customWidth="1"/>
+    <col min="16" max="16" width="8.3984375" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875" customWidth="1"/>
+    <col min="21" max="21" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.19921875" customWidth="1"/>
+    <col min="25" max="25" width="8.09765625" customWidth="1"/>
+    <col min="26" max="26" width="9.09765625" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" customWidth="1"/>
+    <col min="29" max="29" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="12">
         <v>100</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="U2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+    </row>
+    <row r="3" spans="3:38" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="12">
         <v>100</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="12">
         <v>75</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="U4" s="16">
+        <v>1</v>
+      </c>
+      <c r="V4" s="17">
+        <f>P5</f>
+        <v>7.5329480769230788</v>
+      </c>
+      <c r="W4" s="9">
+        <f>Q5</f>
+        <v>8.0932499999999994</v>
+      </c>
+      <c r="X4" s="17">
+        <f>V4^2</f>
+        <v>56.745306729619109</v>
+      </c>
+      <c r="Y4" s="17">
+        <f>V4*W4</f>
+        <v>60.966032023557702</v>
+      </c>
+      <c r="Z4" s="9">
+        <f>P16</f>
+        <v>3.2244023904382475</v>
+      </c>
+      <c r="AA4" s="9">
+        <f>Q16</f>
+        <v>3.5330715000000006</v>
+      </c>
+      <c r="AB4" s="9">
+        <f>Z4^2</f>
+        <v>10.396770775463885</v>
+      </c>
+      <c r="AC4" s="9">
+        <f>AA4*Z4</f>
+        <v>11.392044190189246</v>
+      </c>
+    </row>
+    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="12">
         <v>275</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="16">
         <v>1</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <f>(G$4/1000)*(G$3/1000)</f>
         <v>7.4999999999999997E-3</v>
       </c>
@@ -608,140 +769,407 @@
         <f>(E11/1000)-(G$3/2000)</f>
         <v>0.11</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <f>((G$4/1000)*((G$3/1000)^3))/12</f>
         <v>6.250000000000002E-6</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K6" s="5">
+      <c r="O5" s="9">
+        <f>M5+(N5/(L5*M5))</f>
+        <v>0.11757575757575758</v>
+      </c>
+      <c r="P5" s="9">
+        <f>((D11/1000)*9.81*(G$5/1000))/((G$2/1000)+(G$3/2000)+(((G$3/1000)^2)/(12*M5)))</f>
+        <v>7.5329480769230788</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>9810*((E11/1000)-(G$3/2000))*(G$4/1000)*(G$3/1000)</f>
+        <v>8.0932499999999994</v>
+      </c>
+      <c r="U5" s="16">
         <v>2</v>
       </c>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6:L14" si="0">(G$4/1000)*(G$3/1000)</f>
+      <c r="V5" s="17">
+        <f t="shared" ref="V5:V13" si="0">P6</f>
+        <v>7.1741170854271346</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" ref="W5:W13" si="1">Q6</f>
+        <v>7.7253749999999997</v>
+      </c>
+      <c r="X5" s="17">
+        <f t="shared" ref="X5:X14" si="2">V5^2</f>
+        <v>51.467955955417523</v>
+      </c>
+      <c r="Y5" s="17">
+        <f t="shared" ref="Y5:Y13" si="3">V5*W5</f>
+        <v>55.42274477883165</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" ref="Z5:Z13" si="4">P17</f>
+        <v>3.044985148514852</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" ref="AA5:AA13" si="5">Q17</f>
+        <v>3.320071875</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" ref="AB5:AB13" si="6">Z5^2</f>
+        <v>9.2719345546760152</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" ref="AC5:AC13" si="7">AA5*Z5</f>
+        <v>10.109569551376858</v>
+      </c>
+    </row>
+    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="K6" s="16">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" ref="L6:L14" si="8">(G$4/1000)*(G$3/1000)</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="M6" s="9">
-        <f t="shared" ref="M6:M14" si="1">(E12/1000)-(G$3/2000)</f>
+        <f t="shared" ref="M6:M14" si="9">(E12/1000)-(G$3/2000)</f>
         <v>0.105</v>
       </c>
-      <c r="N6" s="5">
-        <f t="shared" ref="N6:N16" si="2">((G$4/1000)*((G$3/1000)^3))/12</f>
+      <c r="N6" s="6">
+        <f t="shared" ref="N6:N16" si="10">((G$4/1000)*((G$3/1000)^3))/12</f>
         <v>6.250000000000002E-6</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K7" s="5">
+      <c r="O6" s="9">
+        <f t="shared" ref="O6:O25" si="11">M6+(N6/(L6*M6))</f>
+        <v>0.11293650793650793</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" ref="P6:P14" si="12">((D12/1000)*9.81*(G$5/1000))/((G$2/1000)+(G$3/2000)+(((G$3/1000)^2)/(12*M6)))</f>
+        <v>7.1741170854271346</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" ref="Q6:Q14" si="13">9810*((E12/1000)-(G$3/2000))*(G$4/1000)*(G$3/1000)</f>
+        <v>7.7253749999999997</v>
+      </c>
+      <c r="U6" s="16">
         <v>3</v>
       </c>
-      <c r="L7" s="8">
+      <c r="V6" s="17">
         <f t="shared" si="0"/>
+        <v>6.8117470775770466</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="1"/>
+        <v>7.283925</v>
+      </c>
+      <c r="X6" s="17">
+        <f t="shared" si="2"/>
+        <v>46.399898248879431</v>
+      </c>
+      <c r="Y6" s="17">
+        <f t="shared" si="3"/>
+        <v>49.61625483204039</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="4"/>
+        <v>2.6977500000000001</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="5"/>
+        <v>2.9797875</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="6"/>
+        <v>7.2778550625000005</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="7"/>
+        <v>8.038721728125001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="8"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="M7" s="9">
+        <f t="shared" si="9"/>
+        <v>9.8999999999999991E-2</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="10"/>
+        <v>6.250000000000002E-6</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="11"/>
+        <v>0.10741750841750841</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="12"/>
+        <v>6.8117470775770466</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="13"/>
+        <v>7.283925</v>
+      </c>
+      <c r="U7" s="16">
+        <v>4</v>
+      </c>
+      <c r="V7" s="17">
+        <f t="shared" si="0"/>
+        <v>6.6341852112676056</v>
+      </c>
+      <c r="W7" s="9">
         <f t="shared" si="1"/>
-        <v>9.8999999999999991E-2</v>
-      </c>
-      <c r="N7" s="5">
+        <v>7.1367749999999992</v>
+      </c>
+      <c r="X7" s="17">
         <f t="shared" si="2"/>
+        <v>44.012413417401802</v>
+      </c>
+      <c r="Y7" s="17">
+        <f t="shared" si="3"/>
+        <v>47.346687161144359</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="4"/>
+        <v>2.3526889534883719</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" si="5"/>
+        <v>2.5957260000000004</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="6"/>
+        <v>5.5351453118662111</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="7"/>
+        <v>6.1069358864825585</v>
+      </c>
+    </row>
+    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="K8" s="16">
+        <v>4</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="9"/>
+        <v>9.6999999999999989E-2</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="10"/>
         <v>6.250000000000002E-6</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K8" s="5">
+      <c r="O8" s="9">
+        <f t="shared" si="11"/>
+        <v>0.10559106529209622</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="12"/>
+        <v>6.6341852112676056</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="13"/>
+        <v>7.1367749999999992</v>
+      </c>
+      <c r="U8" s="16">
+        <v>5</v>
+      </c>
+      <c r="V8" s="17">
+        <f t="shared" si="0"/>
+        <v>6.2774273371104821</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="1"/>
+        <v>6.8056874999999994</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" si="2"/>
+        <v>39.406093972701996</v>
+      </c>
+      <c r="Y8" s="17">
+        <f t="shared" si="3"/>
+        <v>42.722208760331092</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="4"/>
+        <v>2.1831502890173415</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="5"/>
+        <v>2.413627875</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="6"/>
+        <v>4.7661451844365015</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="7"/>
+        <v>5.2693123928865617</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="8">
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="K9" s="16">
+        <v>5</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="9"/>
+        <v>9.2499999999999985E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="10"/>
+        <v>6.250000000000002E-6</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="11"/>
+        <v>0.101509009009009</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="12"/>
+        <v>6.2774273371104821</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="13"/>
+        <v>6.8056874999999994</v>
+      </c>
+      <c r="U9" s="16">
+        <v>6</v>
+      </c>
+      <c r="V9" s="17">
         <f t="shared" si="0"/>
+        <v>5.9169138655462188</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="1"/>
+        <v>6.4010250000000006</v>
+      </c>
+      <c r="X9" s="17">
+        <f t="shared" si="2"/>
+        <v>35.009869692293094</v>
+      </c>
+      <c r="Y9" s="17">
+        <f t="shared" si="3"/>
+        <v>37.874313576207989</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8498857142857141</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="5"/>
+        <v>2.069296875</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="6"/>
+        <v>3.4220771559183669</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="7"/>
+        <v>3.827962727678571</v>
+      </c>
+    </row>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="16">
+        <v>6</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" si="8"/>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M10" s="9">
+        <f t="shared" si="9"/>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="10"/>
+        <v>6.250000000000002E-6</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="11"/>
+        <v>9.6578544061302687E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="12"/>
+        <v>5.9169138655462188</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="13"/>
+        <v>6.4010250000000006</v>
+      </c>
+      <c r="U10" s="16">
+        <v>7</v>
+      </c>
+      <c r="V10" s="17">
+        <f t="shared" si="0"/>
+        <v>5.735563771712159</v>
+      </c>
+      <c r="W10" s="9">
         <f t="shared" si="1"/>
-        <v>9.6999999999999989E-2</v>
-      </c>
-      <c r="N8" s="5">
+        <v>6.1803000000000008</v>
+      </c>
+      <c r="X10" s="17">
         <f t="shared" si="2"/>
-        <v>6.250000000000002E-6</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="K9" s="5">
-        <v>5</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="1"/>
-        <v>9.2499999999999985E-2</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="2"/>
-        <v>6.250000000000002E-6</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="5">
-        <v>6</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="1"/>
-        <v>8.7000000000000008E-2</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="2"/>
-        <v>6.250000000000002E-6</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C11" s="5">
+        <v>32.896691779377008</v>
+      </c>
+      <c r="Y10" s="17">
+        <f t="shared" si="3"/>
+        <v>35.447504778312663</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="4"/>
+        <v>1.5212875939849626</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" si="5"/>
+        <v>1.7010540000000003</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="6"/>
+        <v>2.3143159436125562</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="7"/>
+        <v>2.5877923468984969</v>
+      </c>
+    </row>
+    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
         <v>1</v>
       </c>
       <c r="D11" s="10">
@@ -756,27 +1184,71 @@
       <c r="G11" s="11">
         <v>98</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="16">
         <v>7</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="9"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="10"/>
+        <v>6.250000000000002E-6</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="11"/>
+        <v>9.3920634920634932E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="12"/>
+        <v>5.735563771712159</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="13"/>
+        <v>6.1803000000000008</v>
+      </c>
+      <c r="U11" s="16">
+        <v>8</v>
+      </c>
+      <c r="V11" s="17">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M11" s="9">
+        <v>5.3757195832783857</v>
+      </c>
+      <c r="W11" s="9">
         <f t="shared" si="1"/>
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="N11" s="5">
+        <v>5.7903524999999982</v>
+      </c>
+      <c r="X11" s="17">
         <f t="shared" si="2"/>
-        <v>6.250000000000002E-6</v>
-      </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="5">
+        <v>28.89836103804274</v>
+      </c>
+      <c r="Y11" s="17">
+        <f t="shared" si="3"/>
+        <v>31.127311328334951</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.361481308411215</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="5"/>
+        <v>1.5542718750000002</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="6"/>
+        <v>1.8536313531531139</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="7"/>
+        <v>2.1161121060017525</v>
+      </c>
+    </row>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
         <v>2</v>
       </c>
       <c r="D12" s="10">
@@ -791,27 +1263,71 @@
       <c r="G12" s="11">
         <v>95</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="16">
         <v>8</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="9"/>
+        <v>7.8699999999999978E-2</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="10"/>
+        <v>6.250000000000002E-6</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="11"/>
+        <v>8.9288733587462921E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="12"/>
+        <v>5.3757195832783857</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="13"/>
+        <v>5.7903524999999982</v>
+      </c>
+      <c r="U12" s="16">
+        <v>9</v>
+      </c>
+      <c r="V12" s="17">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M12" s="9">
+        <v>5.0187192737430166</v>
+      </c>
+      <c r="W12" s="9">
         <f t="shared" si="1"/>
-        <v>7.8699999999999978E-2</v>
-      </c>
-      <c r="N12" s="5">
+        <v>5.4445499999999996</v>
+      </c>
+      <c r="X12" s="17">
         <f t="shared" si="2"/>
-        <v>6.250000000000002E-6</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C13" s="5">
+        <v>25.187543148639634</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="3"/>
+        <v>27.324668021857541</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="4"/>
+        <v>1.0414108455882356</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="5"/>
+        <v>1.153656</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="6"/>
+        <v>1.0845365493088039</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="7"/>
+        <v>1.2014298704779416</v>
+      </c>
+    </row>
+    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C13" s="15">
         <v>3</v>
       </c>
       <c r="D13" s="10">
@@ -826,27 +1342,71 @@
       <c r="G13" s="11">
         <v>90</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="16">
         <v>9</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
+        <f t="shared" si="8"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="9"/>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="10"/>
+        <v>6.250000000000002E-6</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="11"/>
+        <v>8.5261261261261267E-2</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="12"/>
+        <v>5.0187192737430166</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="13"/>
+        <v>5.4445499999999996</v>
+      </c>
+      <c r="U13" s="16">
+        <v>10</v>
+      </c>
+      <c r="V13" s="17">
         <f t="shared" si="0"/>
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="M13" s="9">
+        <v>4.8420361031518624</v>
+      </c>
+      <c r="W13" s="9">
         <f t="shared" si="1"/>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="N13" s="5">
+        <v>5.2973999999999997</v>
+      </c>
+      <c r="X13" s="17">
         <f t="shared" si="2"/>
-        <v>6.250000000000002E-6</v>
-      </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="5">
+        <v>23.445313624226074</v>
+      </c>
+      <c r="Y13" s="17">
+        <f t="shared" si="3"/>
+        <v>25.650202052836676</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="4"/>
+        <v>0.73308423913043486</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="5"/>
+        <v>0.847584</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="6"/>
+        <v>0.53741250166144861</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="7"/>
+        <v>0.62135047173913049</v>
+      </c>
+    </row>
+    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
         <v>4</v>
       </c>
       <c r="D14" s="10">
@@ -861,27 +1421,71 @@
       <c r="G14" s="11">
         <v>84</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="16">
         <v>10</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="0"/>
+      <c r="L14" s="7">
+        <f t="shared" si="8"/>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="2"/>
+      <c r="N14" s="6">
+        <f t="shared" si="10"/>
         <v>6.250000000000002E-6</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="5">
+      <c r="O14" s="9">
+        <f t="shared" si="11"/>
+        <v>8.3574074074074078E-2</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="12"/>
+        <v>4.8420361031518624</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="13"/>
+        <v>5.2973999999999997</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="V14" s="18">
+        <f>SUM(V4:V13)</f>
+        <v>61.319377385736992</v>
+      </c>
+      <c r="W14" s="18">
+        <f t="shared" ref="W14:AC14" si="14">SUM(W4:W13)</f>
+        <v>66.158640000000005</v>
+      </c>
+      <c r="X14" s="18">
+        <f t="shared" si="14"/>
+        <v>383.46944760659841</v>
+      </c>
+      <c r="Y14" s="18">
+        <f t="shared" si="14"/>
+        <v>413.49792731345497</v>
+      </c>
+      <c r="Z14" s="18">
+        <f t="shared" si="14"/>
+        <v>20.010126482859373</v>
+      </c>
+      <c r="AA14" s="18">
+        <f t="shared" si="14"/>
+        <v>22.168147500000003</v>
+      </c>
+      <c r="AB14" s="18">
+        <f t="shared" si="14"/>
+        <v>46.4598243925969</v>
+      </c>
+      <c r="AC14" s="18">
+        <f t="shared" si="14"/>
+        <v>51.271231271856109</v>
+      </c>
+    </row>
+    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="15">
         <v>5</v>
       </c>
       <c r="D15" s="10">
@@ -896,18 +1500,18 @@
       <c r="G15" s="11">
         <v>81</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="5">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="15">
         <v>6</v>
       </c>
       <c r="D16" s="10">
@@ -922,10 +1526,10 @@
       <c r="G16" s="11">
         <v>75</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="16">
         <v>1</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="7">
         <f>(G$4/1000)*(G11/1000)</f>
         <v>7.3499999999999998E-3</v>
       </c>
@@ -937,12 +1541,21 @@
         <f>((G$4/1000)*((G11/1000)^3))/12</f>
         <v>5.8824500000000007E-6</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="5">
+      <c r="O16" s="9">
+        <f t="shared" si="11"/>
+        <v>6.533333333333334E-2</v>
+      </c>
+      <c r="P16" s="9">
+        <f>((F11/1000)*9.81*(G$5/1000))/((G$2/1000)+(G$3/1000)-((G11/1000)/(3)))</f>
+        <v>3.2244023904382475</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>0.5*9810*(G$4/1000)*((G11/1000)^2)</f>
+        <v>3.5330715000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C17" s="15">
         <v>7</v>
       </c>
       <c r="D17" s="10">
@@ -957,27 +1570,55 @@
       <c r="G17" s="11">
         <v>68</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="16">
         <v>2</v>
       </c>
-      <c r="L17" s="8">
-        <f t="shared" ref="L17:L25" si="3">(G$4/1000)*(G12/1000)</f>
+      <c r="L17" s="7">
+        <f t="shared" ref="L17:L25" si="15">(G$4/1000)*(G12/1000)</f>
         <v>7.1249999999999994E-3</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" ref="M17:M25" si="4">G12/2000</f>
+        <f t="shared" ref="M17:M25" si="16">G12/2000</f>
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="N17" s="13">
-        <f t="shared" ref="N17:N25" si="5">((G$4/1000)*((G12/1000)^3))/12</f>
+        <f t="shared" ref="N17:N25" si="17">((G$4/1000)*((G12/1000)^3))/12</f>
         <v>5.3585937500000002E-6</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="5">
+      <c r="O17" s="9">
+        <f t="shared" si="11"/>
+        <v>6.3333333333333339E-2</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" ref="P17:P25" si="18">((F12/1000)*9.81*(G$5/1000))/((G$2/1000)+(G$3/1000)-((G12/1000)/(3)))</f>
+        <v>3.044985148514852</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" ref="Q17:Q25" si="19">0.5*9810*(G$4/1000)*((G12/1000)^2)</f>
+        <v>3.320071875</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C18" s="15">
         <v>8</v>
       </c>
       <c r="D18" s="10">
@@ -992,27 +1633,57 @@
       <c r="G18" s="11">
         <v>65</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="16">
         <v>3</v>
       </c>
-      <c r="L18" s="8">
-        <f t="shared" si="3"/>
+      <c r="L18" s="7">
+        <f t="shared" si="15"/>
         <v>6.7499999999999999E-3</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="N18" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.5562499999999998E-6</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="5">
+      <c r="O18" s="9">
+        <f t="shared" si="11"/>
+        <v>0.06</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="18"/>
+        <v>2.6977500000000001</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="19"/>
+        <v>2.9797875</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="9">
+        <f>AVERAGE(V4:V13)</f>
+        <v>6.1319377385736988</v>
+      </c>
+      <c r="W18" s="9">
+        <f>AVERAGE(W4:W13)</f>
+        <v>6.6158640000000002</v>
+      </c>
+      <c r="X18" s="9">
+        <f>((Y$14/COUNT(Y4:Y13))-(V18*W18))/((X$14/COUNT(X4:X13))-(V18^2))</f>
+        <v>1.0474916383616997</v>
+      </c>
+      <c r="Y18" s="8">
+        <f>W18-(X18*V18)</f>
+        <v>0.19271049188950062</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C19" s="15">
         <v>9</v>
       </c>
       <c r="D19" s="10">
@@ -1027,27 +1698,57 @@
       <c r="G19" s="11">
         <v>56</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="16">
         <v>4</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="3"/>
+      <c r="L19" s="7">
+        <f t="shared" si="15"/>
         <v>6.3E-3</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="N19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.7044000000000009E-6</v>
       </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="5">
+      <c r="O19" s="9">
+        <f t="shared" si="11"/>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="18"/>
+        <v>2.3526889534883719</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="19"/>
+        <v>2.5957260000000004</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="9">
+        <f>AVERAGE(Z4:Z13)</f>
+        <v>2.0010126482859372</v>
+      </c>
+      <c r="W19" s="9">
+        <f>AVERAGE(AA4:AA13)</f>
+        <v>2.2168147500000002</v>
+      </c>
+      <c r="X19" s="9">
+        <f>((Y$14/COUNT(Y5:Y14))-(V19*W19))/((X$14/COUNT(X5:X14))-(V19^2))</f>
+        <v>1.0748633851258271</v>
+      </c>
+      <c r="Y19" s="8">
+        <f>W19-(X19*V19)</f>
+        <v>6.5999521183781606E-2</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C20" s="15">
         <v>10</v>
       </c>
       <c r="D20" s="10">
@@ -1062,130 +1763,190 @@
       <c r="G20" s="11">
         <v>48</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="16">
         <v>5</v>
       </c>
-      <c r="L20" s="8">
-        <f t="shared" si="3"/>
+      <c r="L20" s="7">
+        <f t="shared" si="15"/>
         <v>6.0749999999999997E-3</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="N20" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.3215062500000003E-6</v>
       </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K21" s="5">
+      <c r="O20" s="9">
+        <f t="shared" si="11"/>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="18"/>
+        <v>2.1831502890173415</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="19"/>
+        <v>2.413627875</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="K21" s="16">
         <v>6</v>
       </c>
-      <c r="L21" s="8">
-        <f t="shared" si="3"/>
+      <c r="L21" s="7">
+        <f t="shared" si="15"/>
         <v>5.6249999999999998E-3</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="N21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.6367187499999997E-6</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K22" s="5">
+      <c r="O21" s="9">
+        <f t="shared" si="11"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="18"/>
+        <v>1.8498857142857141</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="19"/>
+        <v>2.069296875</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="K22" s="16">
         <v>7</v>
       </c>
-      <c r="L22" s="8">
-        <f t="shared" si="3"/>
+      <c r="L22" s="7">
+        <f t="shared" si="15"/>
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="N22" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9652000000000003E-6</v>
       </c>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K23" s="5">
+      <c r="O22" s="9">
+        <f t="shared" si="11"/>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="18"/>
+        <v>1.5212875939849626</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="19"/>
+        <v>1.7010540000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="K23" s="16">
         <v>8</v>
       </c>
-      <c r="L23" s="8">
-        <f t="shared" si="3"/>
+      <c r="L23" s="7">
+        <f t="shared" si="15"/>
         <v>4.875E-3</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="N23" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.71640625E-6</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K24" s="5">
+      <c r="O23" s="9">
+        <f t="shared" si="11"/>
+        <v>4.3333333333333335E-2</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="18"/>
+        <v>1.361481308411215</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="19"/>
+        <v>1.5542718750000002</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="K24" s="16">
         <v>9</v>
       </c>
-      <c r="L24" s="8">
-        <f t="shared" si="3"/>
+      <c r="L24" s="7">
+        <f t="shared" si="15"/>
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="N24" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.0976000000000001E-6</v>
       </c>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="K25" s="5">
+      <c r="O24" s="9">
+        <f t="shared" si="11"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="18"/>
+        <v>1.0414108455882356</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="19"/>
+        <v>1.153656</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="K25" s="16">
         <v>10</v>
       </c>
-      <c r="L25" s="8">
-        <f t="shared" si="3"/>
+      <c r="L25" s="7">
+        <f t="shared" si="15"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="16"/>
         <v>2.4E-2</v>
       </c>
       <c r="N25" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>6.9119999999999994E-7</v>
       </c>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
+      <c r="O25" s="9">
+        <f t="shared" si="11"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="18"/>
+        <v>0.73308423913043486</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="19"/>
+        <v>0.847584</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="K4:Q4"/>
     <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
@@ -1201,5 +1962,6 @@
     <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lab2/lab2-flu.xlsx
+++ b/lab2/lab2-flu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE4B18-DFEF-4543-8FC2-A8B793D9B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8FED1-05D9-41B7-8159-147C08B70884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C49E63F5-E306-43EF-9E1D-6623F3DA5874}"/>
   </bookViews>
@@ -284,6 +284,2650 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟหน้า2-8</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>พื้นที่จมทั้งหมด</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$5:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8999999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6999999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2499999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7000000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8699999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.5329480769230788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1741170854271346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8117470775770466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6341852112676056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2774273371104821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9169138655462188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.735563771712159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3757195832783857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0187192737430166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8420361031518624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BB3-40BF-B00F-DB85B45F3C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>พื้นที่จมบางส่วน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$16:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2244023904382475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.044985148514852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3526889534883719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1831502890173415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8498857142857141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5212875939849626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.361481308411215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0414108455882356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73308423913043486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9BB3-40BF-B00F-DB85B45F3C65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98398384"/>
+        <c:axId val="98418544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98398384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hbar (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98418544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0000000000000004E-2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98418544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fexp(N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98398384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>กราฟหน้า2-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>พื้นที่จมทั้งหมด</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$5:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.5329480769230788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1741170854271346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8117470775770466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6341852112676056</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2774273371104821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9169138655462188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.735563771712159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.3757195832783857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0187192737430166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8420361031518624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$5:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.0932499999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7253749999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.283925</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1367749999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8056874999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4010250000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1803000000000008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7903524999999982</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4445499999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2973999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADC2-4169-B176-C4A876B6F671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>พื้นที่จมบางส่วน</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="th-TH"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$16:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.2244023904382475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.044985148514852</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6977500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3526889534883719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1831502890173415</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8498857142857141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5212875939849626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.361481308411215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0414108455882356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73308423913043486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$16:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.5330715000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.320071875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9797875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5957260000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.413627875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.069296875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7010540000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5542718750000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.153656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.847584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ADC2-4169-B176-C4A876B6F671}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="98398384"/>
+        <c:axId val="98418544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98398384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Fexp(N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98418544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98418544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ftheo(N)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="th-TH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="th-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="98398384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="th-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="th-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6FBABC-0178-B3A3-AA35-86F929946932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF010997-25F6-46EC-8468-4FEFB3E9762D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,8 +3229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC5AA8-82F9-402F-A304-5DAF3A28FC3F}">
   <dimension ref="C2:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1963,5 +4607,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/lab2/lab2-flu.xlsx
+++ b/lab2/lab2-flu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\LABFLUID\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8FED1-05D9-41B7-8159-147C08B70884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1623B6-2FD0-4E44-B915-AD828AD02B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C49E63F5-E306-43EF-9E1D-6623F3DA5874}"/>
   </bookViews>
@@ -1711,12 +1711,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2855,15 +2850,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2891,15 +2886,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>659130</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3229,8 +3224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DC5AA8-82F9-402F-A304-5DAF3A28FC3F}">
   <dimension ref="C2:AL25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="M18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
